--- a/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter_neutralize.xlsx
+++ b/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter_neutralize.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00033</v>
+        <v>0.00091</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.0011</v>
+        <v>0.00127</v>
       </c>
       <c r="D3">
-        <v>0.00103</v>
+        <v>0.00132</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00113</v>
+        <v>0.00108</v>
       </c>
       <c r="D4">
-        <v>0.00079</v>
+        <v>0.00119</v>
       </c>
       <c r="E4">
-        <v>0.00095</v>
+        <v>0.00108</v>
       </c>
       <c r="F4">
-        <v>0.00104</v>
+        <v>0.00111</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -460,16 +460,16 @@
         <v>0.00104</v>
       </c>
       <c r="D5">
-        <v>0.0006400000000000001</v>
+        <v>0.00125</v>
       </c>
       <c r="E5">
-        <v>0.00087</v>
+        <v>0.00106</v>
       </c>
       <c r="F5">
-        <v>0.00106</v>
+        <v>0.0012</v>
       </c>
       <c r="G5">
-        <v>0.00098</v>
+        <v>0.00105</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00086</v>
+        <v>0.00069</v>
       </c>
       <c r="D6">
-        <v>0.00059</v>
+        <v>0.00099</v>
       </c>
       <c r="E6">
-        <v>0.00087</v>
+        <v>0.00114</v>
       </c>
       <c r="F6">
-        <v>0.00086</v>
+        <v>0.00092</v>
       </c>
       <c r="G6">
-        <v>0.0008899999999999999</v>
+        <v>0.00106</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -499,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00029</v>
+        <v>0.0004</v>
       </c>
       <c r="D7">
-        <v>0.00069</v>
+        <v>0.00106</v>
       </c>
       <c r="E7">
-        <v>0.00049</v>
+        <v>0.00091</v>
       </c>
       <c r="F7">
-        <v>0.00046</v>
+        <v>0.0008</v>
       </c>
       <c r="G7">
-        <v>0.00078</v>
+        <v>0.00085</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02666</v>
+        <v>0.02712</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01949</v>
+        <v>0.01985</v>
       </c>
       <c r="D9">
-        <v>0.02005</v>
+        <v>0.02043</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01268</v>
+        <v>0.01443</v>
       </c>
       <c r="D10">
-        <v>0.01437</v>
+        <v>0.0144</v>
       </c>
       <c r="E10">
-        <v>0.01421</v>
+        <v>0.0145</v>
       </c>
       <c r="F10">
-        <v>0.01466</v>
+        <v>0.01484</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01173</v>
+        <v>0.01077</v>
       </c>
       <c r="D11">
-        <v>0.01151</v>
+        <v>0.01183</v>
       </c>
       <c r="E11">
-        <v>0.01194</v>
+        <v>0.01232</v>
       </c>
       <c r="F11">
-        <v>0.01178</v>
+        <v>0.01207</v>
       </c>
       <c r="G11">
-        <v>0.01162</v>
+        <v>0.01182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.00984</v>
+        <v>0.01007</v>
       </c>
       <c r="D12">
-        <v>0.01007</v>
+        <v>0.0104</v>
       </c>
       <c r="E12">
-        <v>0.01411</v>
+        <v>0.01363</v>
       </c>
       <c r="F12">
-        <v>0.01025</v>
+        <v>0.01046</v>
       </c>
       <c r="G12">
-        <v>0.00992</v>
+        <v>0.01041</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01249</v>
+        <v>0.00886</v>
       </c>
       <c r="D13">
-        <v>0.01192</v>
+        <v>0.01109</v>
       </c>
       <c r="E13">
-        <v>0.01122</v>
+        <v>0.01208</v>
       </c>
       <c r="F13">
-        <v>0.00847</v>
+        <v>0.00911</v>
       </c>
       <c r="G13">
-        <v>0.00906</v>
+        <v>0.009480000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.07870000000000001</v>
+        <v>0.21606</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.26119</v>
+        <v>0.3028</v>
       </c>
       <c r="D15">
-        <v>0.24541</v>
+        <v>0.31415</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.26903</v>
+        <v>0.25605</v>
       </c>
       <c r="D16">
-        <v>0.18692</v>
+        <v>0.2829</v>
       </c>
       <c r="E16">
-        <v>0.2267</v>
+        <v>0.25801</v>
       </c>
       <c r="F16">
-        <v>0.24669</v>
+        <v>0.26391</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.24797</v>
+        <v>0.24663</v>
       </c>
       <c r="D17">
-        <v>0.15246</v>
+        <v>0.29653</v>
       </c>
       <c r="E17">
-        <v>0.20724</v>
+        <v>0.25282</v>
       </c>
       <c r="F17">
-        <v>0.25212</v>
+        <v>0.28558</v>
       </c>
       <c r="G17">
-        <v>0.2343</v>
+        <v>0.24983</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.20383</v>
+        <v>0.16525</v>
       </c>
       <c r="D18">
-        <v>0.14071</v>
+        <v>0.2367</v>
       </c>
       <c r="E18">
-        <v>0.2079</v>
+        <v>0.27127</v>
       </c>
       <c r="F18">
-        <v>0.20454</v>
+        <v>0.21879</v>
       </c>
       <c r="G18">
-        <v>0.21214</v>
+        <v>0.25276</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.0679</v>
+        <v>0.09504</v>
       </c>
       <c r="D19">
-        <v>0.16404</v>
+        <v>0.25258</v>
       </c>
       <c r="E19">
-        <v>0.11562</v>
+        <v>0.2169</v>
       </c>
       <c r="F19">
-        <v>0.10938</v>
+        <v>0.18965</v>
       </c>
       <c r="G19">
-        <v>0.18527</v>
+        <v>0.20128</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.19136</v>
+        <v>0.51644</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.8686</v>
+        <v>0.98859</v>
       </c>
       <c r="D21">
-        <v>0.79331</v>
+        <v>0.9966699999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>1.37572</v>
+        <v>1.15003</v>
       </c>
       <c r="D22">
-        <v>0.84306</v>
+        <v>1.27336</v>
       </c>
       <c r="E22">
-        <v>1.03447</v>
+        <v>1.15366</v>
       </c>
       <c r="F22">
-        <v>1.09081</v>
+        <v>1.15252</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1.36976</v>
+        <v>1.4842</v>
       </c>
       <c r="D23">
-        <v>0.85875</v>
+        <v>1.62512</v>
       </c>
       <c r="E23">
-        <v>1.12468</v>
+        <v>1.32979</v>
       </c>
       <c r="F23">
-        <v>1.38738</v>
+        <v>1.53382</v>
       </c>
       <c r="G23">
-        <v>1.3074</v>
+        <v>1.3703</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>1.34266</v>
+        <v>1.06399</v>
       </c>
       <c r="D24">
-        <v>0.90556</v>
+        <v>1.47507</v>
       </c>
       <c r="E24">
-        <v>0.95512</v>
+        <v>1.29009</v>
       </c>
       <c r="F24">
-        <v>1.29348</v>
+        <v>1.35619</v>
       </c>
       <c r="G24">
-        <v>1.38617</v>
+        <v>1.57456</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.3524</v>
+        <v>0.69494</v>
       </c>
       <c r="D25">
-        <v>0.89206</v>
+        <v>1.47602</v>
       </c>
       <c r="E25">
-        <v>0.66797</v>
+        <v>1.16376</v>
       </c>
       <c r="F25">
-        <v>0.83668</v>
+        <v>1.34963</v>
       </c>
       <c r="G25">
-        <v>1.3249</v>
+        <v>1.37621</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.96711</v>
+        <v>-0.5795400000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.36231</v>
+        <v>-0.33933</v>
       </c>
       <c r="D27">
-        <v>-0.36026</v>
+        <v>-0.39032</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.22052</v>
+        <v>-0.41678</v>
       </c>
       <c r="D28">
-        <v>-0.2618</v>
+        <v>-0.21541</v>
       </c>
       <c r="E28">
-        <v>-0.23636</v>
+        <v>-0.22412</v>
       </c>
       <c r="F28">
-        <v>-0.25649</v>
+        <v>-0.23796</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.21395</v>
+        <v>-0.20869</v>
       </c>
       <c r="D29">
-        <v>-0.25741</v>
+        <v>-0.16782</v>
       </c>
       <c r="E29">
-        <v>-0.19742</v>
+        <v>-0.19401</v>
       </c>
       <c r="F29">
-        <v>-0.17165</v>
+        <v>-0.17009</v>
       </c>
       <c r="G29">
-        <v>-0.16918</v>
+        <v>-0.17035</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.1712</v>
+        <v>-0.25577</v>
       </c>
       <c r="D30">
-        <v>-0.16402</v>
+        <v>-0.18438</v>
       </c>
       <c r="E30">
-        <v>-0.13266</v>
+        <v>-0.16516</v>
       </c>
       <c r="F30">
-        <v>-0.15347</v>
+        <v>-0.15694</v>
       </c>
       <c r="G30">
-        <v>-0.16096</v>
+        <v>-0.15803</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -915,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.47088</v>
+        <v>-0.22469</v>
       </c>
       <c r="D31">
-        <v>-0.16932</v>
+        <v>-0.16406</v>
       </c>
       <c r="E31">
-        <v>-0.18264</v>
+        <v>-0.16968</v>
       </c>
       <c r="F31">
-        <v>-0.16707</v>
+        <v>-0.12117</v>
       </c>
       <c r="G31">
-        <v>-0.15279</v>
+        <v>-0.13899</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.0014</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00015</v>
+        <v>0.0003</v>
       </c>
       <c r="D3">
-        <v>-0.00068</v>
+        <v>-0.00046</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00096</v>
+        <v>0.00056</v>
       </c>
       <c r="D4">
-        <v>-0.00016</v>
+        <v>0.00022</v>
       </c>
       <c r="E4">
-        <v>-0.00042</v>
+        <v>-0.00034</v>
       </c>
       <c r="F4">
-        <v>-0.00065</v>
+        <v>-0.00063</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00092</v>
+        <v>0.00073</v>
       </c>
       <c r="D5">
-        <v>0.00011</v>
+        <v>0.00059</v>
       </c>
       <c r="E5">
-        <v>-6.999999999999999E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="F5">
-        <v>-0.00018</v>
+        <v>-8.000000000000001E-05</v>
       </c>
       <c r="G5">
-        <v>-0.00039</v>
+        <v>-0.00045</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00077</v>
+        <v>0.00044</v>
       </c>
       <c r="D6">
-        <v>0.00024</v>
+        <v>0.00051</v>
       </c>
       <c r="E6">
-        <v>0.00049</v>
+        <v>0.00039</v>
       </c>
       <c r="F6">
-        <v>-8.000000000000001E-05</v>
+        <v>-6E-05</v>
       </c>
       <c r="G6">
-        <v>-0.00018</v>
+        <v>-0.00013</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00026</v>
+        <v>0.0002</v>
       </c>
       <c r="D7">
-        <v>0.00057</v>
+        <v>0.00066</v>
       </c>
       <c r="E7">
-        <v>0.00036</v>
+        <v>0.00027</v>
       </c>
       <c r="F7">
-        <v>-5E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="G7">
-        <v>-9.000000000000001E-05</v>
+        <v>-0.00012</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02668</v>
+        <v>0.02714</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.0195</v>
+        <v>0.01986</v>
       </c>
       <c r="D9">
-        <v>0.0201</v>
+        <v>0.02047</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01265</v>
+        <v>0.01443</v>
       </c>
       <c r="D10">
-        <v>0.01438</v>
+        <v>0.0144</v>
       </c>
       <c r="E10">
-        <v>0.01423</v>
+        <v>0.0145</v>
       </c>
       <c r="F10">
-        <v>0.01469</v>
+        <v>0.01487</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01173</v>
+        <v>0.01077</v>
       </c>
       <c r="D11">
-        <v>0.0115</v>
+        <v>0.01183</v>
       </c>
       <c r="E11">
-        <v>0.01195</v>
+        <v>0.01232</v>
       </c>
       <c r="F11">
-        <v>0.01179</v>
+        <v>0.01207</v>
       </c>
       <c r="G11">
-        <v>0.01163</v>
+        <v>0.01183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.00984</v>
+        <v>0.01007</v>
       </c>
       <c r="D12">
-        <v>0.01007</v>
+        <v>0.0104</v>
       </c>
       <c r="E12">
-        <v>0.0141</v>
+        <v>0.01362</v>
       </c>
       <c r="F12">
-        <v>0.01026</v>
+        <v>0.01046</v>
       </c>
       <c r="G12">
-        <v>0.00993</v>
+        <v>0.01041</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01249</v>
+        <v>0.00886</v>
       </c>
       <c r="D13">
-        <v>0.01192</v>
+        <v>0.01109</v>
       </c>
       <c r="E13">
-        <v>0.01122</v>
+        <v>0.01207</v>
       </c>
       <c r="F13">
-        <v>0.008460000000000001</v>
+        <v>0.00911</v>
       </c>
       <c r="G13">
-        <v>0.00907</v>
+        <v>0.009480000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>-0.33212</v>
+        <v>-0.21308</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.03683</v>
+        <v>0.07235</v>
       </c>
       <c r="D15">
-        <v>-0.1617</v>
+        <v>-0.10905</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.22782</v>
+        <v>0.13315</v>
       </c>
       <c r="D16">
-        <v>-0.03803</v>
+        <v>0.05126</v>
       </c>
       <c r="E16">
-        <v>-0.10093</v>
+        <v>-0.08003</v>
       </c>
       <c r="F16">
-        <v>-0.15392</v>
+        <v>-0.14921</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.21944</v>
+        <v>0.17399</v>
       </c>
       <c r="D17">
-        <v>0.0255</v>
+        <v>0.1416</v>
       </c>
       <c r="E17">
-        <v>-0.01676</v>
+        <v>0.02103</v>
       </c>
       <c r="F17">
-        <v>-0.04363</v>
+        <v>-0.01958</v>
       </c>
       <c r="G17">
-        <v>-0.09184</v>
+        <v>-0.10683</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.18305</v>
+        <v>0.10362</v>
       </c>
       <c r="D18">
-        <v>0.05703</v>
+        <v>0.1209</v>
       </c>
       <c r="E18">
-        <v>0.11568</v>
+        <v>0.09193</v>
       </c>
       <c r="F18">
-        <v>-0.02012</v>
+        <v>-0.0131</v>
       </c>
       <c r="G18">
-        <v>-0.04268</v>
+        <v>-0.03102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.06248</v>
+        <v>0.04707</v>
       </c>
       <c r="D19">
-        <v>0.13647</v>
+        <v>0.15658</v>
       </c>
       <c r="E19">
-        <v>0.08455</v>
+        <v>0.06412</v>
       </c>
       <c r="F19">
-        <v>-0.01175</v>
+        <v>0.00449</v>
       </c>
       <c r="G19">
-        <v>-0.0224</v>
+        <v>-0.02893</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>-0.80687</v>
+        <v>-0.50884</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.1224</v>
+        <v>0.23619</v>
       </c>
       <c r="D21">
-        <v>-0.52151</v>
+        <v>-0.34529</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>1.16705</v>
+        <v>0.59792</v>
       </c>
       <c r="D22">
-        <v>-0.17145</v>
+        <v>0.23077</v>
       </c>
       <c r="E22">
-        <v>-0.45983</v>
+        <v>-0.35779</v>
       </c>
       <c r="F22">
-        <v>-0.67897</v>
+        <v>-0.65021</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1.2131</v>
+        <v>1.04736</v>
       </c>
       <c r="D23">
-        <v>0.14375</v>
+        <v>0.77613</v>
       </c>
       <c r="E23">
-        <v>-0.09089</v>
+        <v>0.11064</v>
       </c>
       <c r="F23">
-        <v>-0.23982</v>
+        <v>-0.10517</v>
       </c>
       <c r="G23">
-        <v>-0.51175</v>
+        <v>-0.58536</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>1.2061</v>
+        <v>0.66709</v>
       </c>
       <c r="D24">
-        <v>0.3671</v>
+        <v>0.75348</v>
       </c>
       <c r="E24">
-        <v>0.53162</v>
+        <v>0.43757</v>
       </c>
       <c r="F24">
-        <v>-0.12712</v>
+        <v>-0.08122</v>
       </c>
       <c r="G24">
-        <v>-0.27866</v>
+        <v>-0.19314</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.32431</v>
+        <v>0.34422</v>
       </c>
       <c r="D25">
-        <v>0.74214</v>
+        <v>0.9154099999999999</v>
       </c>
       <c r="E25">
-        <v>0.48827</v>
+        <v>0.34431</v>
       </c>
       <c r="F25">
-        <v>-0.09003</v>
+        <v>0.03194</v>
       </c>
       <c r="G25">
-        <v>-0.16015</v>
+        <v>-0.19782</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-1.88529</v>
+        <v>-1.47208</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.79276</v>
+        <v>-0.76996</v>
       </c>
       <c r="D27">
-        <v>-1.02619</v>
+        <v>-0.83799</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.22052</v>
+        <v>-0.6483100000000001</v>
       </c>
       <c r="D28">
-        <v>-0.60697</v>
+        <v>-0.38876</v>
       </c>
       <c r="E28">
-        <v>-0.50061</v>
+        <v>-0.5804</v>
       </c>
       <c r="F28">
-        <v>-0.72932</v>
+        <v>-0.71262</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.21395</v>
+        <v>-0.30078</v>
       </c>
       <c r="D29">
-        <v>-0.37952</v>
+        <v>-0.2149</v>
       </c>
       <c r="E29">
-        <v>-0.3778</v>
+        <v>-0.38299</v>
       </c>
       <c r="F29">
-        <v>-0.44959</v>
+        <v>-0.46221</v>
       </c>
       <c r="G29">
-        <v>-0.46449</v>
+        <v>-0.49535</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.1712</v>
+        <v>-0.32372</v>
       </c>
       <c r="D30">
-        <v>-0.24449</v>
+        <v>-0.22487</v>
       </c>
       <c r="E30">
-        <v>-0.20731</v>
+        <v>-0.24332</v>
       </c>
       <c r="F30">
-        <v>-0.32519</v>
+        <v>-0.27972</v>
       </c>
       <c r="G30">
-        <v>-0.28925</v>
+        <v>-0.32566</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.48183</v>
+        <v>-0.34178</v>
       </c>
       <c r="D31">
-        <v>-0.17139</v>
+        <v>-0.19186</v>
       </c>
       <c r="E31">
-        <v>-0.20438</v>
+        <v>-0.23745</v>
       </c>
       <c r="F31">
-        <v>-0.21947</v>
+        <v>-0.25876</v>
       </c>
       <c r="G31">
-        <v>-0.27856</v>
+        <v>-0.30469</v>
       </c>
     </row>
   </sheetData>

--- a/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter_neutralize.xlsx
+++ b/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter_neutralize.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00091</v>
+        <v>0.00096</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00127</v>
+        <v>0.00133</v>
       </c>
       <c r="D3">
-        <v>0.00132</v>
+        <v>0.00135</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00108</v>
+        <v>0.0011</v>
       </c>
       <c r="D4">
-        <v>0.00119</v>
+        <v>0.0012</v>
       </c>
       <c r="E4">
-        <v>0.00108</v>
+        <v>0.0011</v>
       </c>
       <c r="F4">
-        <v>0.00111</v>
+        <v>0.00113</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00104</v>
+        <v>0.00105</v>
       </c>
       <c r="D5">
-        <v>0.00125</v>
+        <v>0.00126</v>
       </c>
       <c r="E5">
-        <v>0.00106</v>
+        <v>0.00108</v>
       </c>
       <c r="F5">
-        <v>0.0012</v>
+        <v>0.00121</v>
       </c>
       <c r="G5">
-        <v>0.00105</v>
+        <v>0.00107</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00069</v>
+        <v>0.00072</v>
       </c>
       <c r="D6">
-        <v>0.00099</v>
+        <v>0.00101</v>
       </c>
       <c r="E6">
-        <v>0.00114</v>
+        <v>0.00117</v>
       </c>
       <c r="F6">
-        <v>0.00092</v>
+        <v>0.00094</v>
       </c>
       <c r="G6">
-        <v>0.00106</v>
+        <v>0.00108</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -499,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.0004</v>
+        <v>0.00042</v>
       </c>
       <c r="D7">
-        <v>0.00106</v>
+        <v>0.00107</v>
       </c>
       <c r="E7">
-        <v>0.00091</v>
+        <v>0.00094</v>
       </c>
       <c r="F7">
-        <v>0.0008</v>
+        <v>0.00081</v>
       </c>
       <c r="G7">
-        <v>0.00085</v>
+        <v>0.00086</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02712</v>
+        <v>0.02716</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01985</v>
+        <v>0.01991</v>
       </c>
       <c r="D9">
-        <v>0.02043</v>
+        <v>0.02044</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01443</v>
+        <v>0.01445</v>
       </c>
       <c r="D10">
         <v>0.0144</v>
@@ -552,7 +552,7 @@
         <v>0.0145</v>
       </c>
       <c r="F10">
-        <v>0.01484</v>
+        <v>0.01485</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -564,16 +564,16 @@
         <v>0.01077</v>
       </c>
       <c r="D11">
-        <v>0.01183</v>
+        <v>0.01184</v>
       </c>
       <c r="E11">
-        <v>0.01232</v>
+        <v>0.01234</v>
       </c>
       <c r="F11">
         <v>0.01207</v>
       </c>
       <c r="G11">
-        <v>0.01182</v>
+        <v>0.01183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,16 +582,16 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01007</v>
+        <v>0.01008</v>
       </c>
       <c r="D12">
-        <v>0.0104</v>
+        <v>0.01041</v>
       </c>
       <c r="E12">
-        <v>0.01363</v>
+        <v>0.01365</v>
       </c>
       <c r="F12">
-        <v>0.01046</v>
+        <v>0.01047</v>
       </c>
       <c r="G12">
         <v>0.01041</v>
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.00886</v>
+        <v>0.008880000000000001</v>
       </c>
       <c r="D13">
-        <v>0.01109</v>
+        <v>0.0111</v>
       </c>
       <c r="E13">
-        <v>0.01208</v>
+        <v>0.0121</v>
       </c>
       <c r="F13">
-        <v>0.00911</v>
+        <v>0.00912</v>
       </c>
       <c r="G13">
-        <v>0.009480000000000001</v>
+        <v>0.00949</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.21606</v>
+        <v>0.22936</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.3028</v>
+        <v>0.3154</v>
       </c>
       <c r="D15">
-        <v>0.31415</v>
+        <v>0.32149</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.25605</v>
+        <v>0.2624</v>
       </c>
       <c r="D16">
-        <v>0.2829</v>
+        <v>0.28576</v>
       </c>
       <c r="E16">
-        <v>0.25801</v>
+        <v>0.26187</v>
       </c>
       <c r="F16">
-        <v>0.26391</v>
+        <v>0.26944</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.24663</v>
+        <v>0.24911</v>
       </c>
       <c r="D17">
-        <v>0.29653</v>
+        <v>0.3008</v>
       </c>
       <c r="E17">
-        <v>0.25282</v>
+        <v>0.25788</v>
       </c>
       <c r="F17">
-        <v>0.28558</v>
+        <v>0.28878</v>
       </c>
       <c r="G17">
-        <v>0.24983</v>
+        <v>0.25419</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.16525</v>
+        <v>0.17032</v>
       </c>
       <c r="D18">
-        <v>0.2367</v>
+        <v>0.24016</v>
       </c>
       <c r="E18">
-        <v>0.27127</v>
+        <v>0.2782</v>
       </c>
       <c r="F18">
-        <v>0.21879</v>
+        <v>0.22322</v>
       </c>
       <c r="G18">
-        <v>0.25276</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.09504</v>
+        <v>0.09950000000000001</v>
       </c>
       <c r="D19">
-        <v>0.25258</v>
+        <v>0.25584</v>
       </c>
       <c r="E19">
-        <v>0.2169</v>
+        <v>0.22292</v>
       </c>
       <c r="F19">
-        <v>0.18965</v>
+        <v>0.19373</v>
       </c>
       <c r="G19">
-        <v>0.20128</v>
+        <v>0.20543</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.51644</v>
+        <v>0.54733</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.98859</v>
+        <v>1.02659</v>
       </c>
       <c r="D21">
-        <v>0.9966699999999999</v>
+        <v>1.01931</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>1.15003</v>
+        <v>1.17711</v>
       </c>
       <c r="D22">
-        <v>1.27336</v>
+        <v>1.28641</v>
       </c>
       <c r="E22">
-        <v>1.15366</v>
+        <v>1.17075</v>
       </c>
       <c r="F22">
-        <v>1.15252</v>
+        <v>1.17583</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1.4842</v>
+        <v>1.49919</v>
       </c>
       <c r="D23">
-        <v>1.62512</v>
+        <v>1.64746</v>
       </c>
       <c r="E23">
-        <v>1.32979</v>
+        <v>1.35509</v>
       </c>
       <c r="F23">
-        <v>1.53382</v>
+        <v>1.55082</v>
       </c>
       <c r="G23">
-        <v>1.3703</v>
+        <v>1.39323</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>1.06399</v>
+        <v>1.09472</v>
       </c>
       <c r="D24">
-        <v>1.47507</v>
+        <v>1.49589</v>
       </c>
       <c r="E24">
-        <v>1.29009</v>
+        <v>1.32066</v>
       </c>
       <c r="F24">
-        <v>1.35619</v>
+        <v>1.38219</v>
       </c>
       <c r="G24">
-        <v>1.57456</v>
+        <v>1.59362</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.69494</v>
+        <v>0.72627</v>
       </c>
       <c r="D25">
-        <v>1.47602</v>
+        <v>1.4947</v>
       </c>
       <c r="E25">
-        <v>1.16376</v>
+        <v>1.19404</v>
       </c>
       <c r="F25">
-        <v>1.34963</v>
+        <v>1.37692</v>
       </c>
       <c r="G25">
-        <v>1.37621</v>
+        <v>1.40286</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.0009</v>
+        <v>-0.00084</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.0003</v>
+        <v>0.00036</v>
       </c>
       <c r="D3">
-        <v>-0.00046</v>
+        <v>-0.00043</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00056</v>
+        <v>0.00059</v>
       </c>
       <c r="D4">
-        <v>0.00022</v>
+        <v>0.00023</v>
       </c>
       <c r="E4">
-        <v>-0.00034</v>
+        <v>-0.00032</v>
       </c>
       <c r="F4">
-        <v>-0.00063</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00073</v>
+        <v>0.00074</v>
       </c>
       <c r="D5">
-        <v>0.00059</v>
+        <v>0.00061</v>
       </c>
       <c r="E5">
-        <v>9.000000000000001E-05</v>
+        <v>0.00011</v>
       </c>
       <c r="F5">
-        <v>-8.000000000000001E-05</v>
+        <v>-6.999999999999999E-05</v>
       </c>
       <c r="G5">
-        <v>-0.00045</v>
+        <v>-0.00043</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00044</v>
+        <v>0.00046</v>
       </c>
       <c r="D6">
-        <v>0.00051</v>
+        <v>0.00052</v>
       </c>
       <c r="E6">
-        <v>0.00039</v>
+        <v>0.00042</v>
       </c>
       <c r="F6">
-        <v>-6E-05</v>
+        <v>-4E-05</v>
       </c>
       <c r="G6">
-        <v>-0.00013</v>
+        <v>-0.00012</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.0002</v>
+        <v>0.00022</v>
       </c>
       <c r="D7">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="E7">
-        <v>0.00027</v>
+        <v>0.00029</v>
       </c>
       <c r="F7">
-        <v>2E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="G7">
-        <v>-0.00012</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02714</v>
+        <v>0.02719</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01986</v>
+        <v>0.01992</v>
       </c>
       <c r="D9">
-        <v>0.02047</v>
+        <v>0.02048</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01443</v>
+        <v>0.01445</v>
       </c>
       <c r="D10">
         <v>0.0144</v>
@@ -1109,7 +1109,7 @@
         <v>0.0145</v>
       </c>
       <c r="F10">
-        <v>0.01487</v>
+        <v>0.01489</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1124,13 +1124,13 @@
         <v>0.01183</v>
       </c>
       <c r="E11">
-        <v>0.01232</v>
+        <v>0.01233</v>
       </c>
       <c r="F11">
         <v>0.01207</v>
       </c>
       <c r="G11">
-        <v>0.01183</v>
+        <v>0.01184</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,16 +1139,16 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01007</v>
+        <v>0.01009</v>
       </c>
       <c r="D12">
-        <v>0.0104</v>
+        <v>0.01041</v>
       </c>
       <c r="E12">
-        <v>0.01362</v>
+        <v>0.01364</v>
       </c>
       <c r="F12">
-        <v>0.01046</v>
+        <v>0.01047</v>
       </c>
       <c r="G12">
         <v>0.01041</v>
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.00886</v>
+        <v>0.008880000000000001</v>
       </c>
       <c r="D13">
         <v>0.01109</v>
       </c>
       <c r="E13">
-        <v>0.01207</v>
+        <v>0.01209</v>
       </c>
       <c r="F13">
-        <v>0.00911</v>
+        <v>0.00912</v>
       </c>
       <c r="G13">
-        <v>0.009480000000000001</v>
+        <v>0.00949</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>-0.21308</v>
+        <v>-0.1998</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.07235</v>
+        <v>0.08494</v>
       </c>
       <c r="D15">
-        <v>-0.10905</v>
+        <v>-0.10173</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.13315</v>
+        <v>0.13951</v>
       </c>
       <c r="D16">
-        <v>0.05126</v>
+        <v>0.05412</v>
       </c>
       <c r="E16">
-        <v>-0.08003</v>
+        <v>-0.07617</v>
       </c>
       <c r="F16">
-        <v>-0.14921</v>
+        <v>-0.14371</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.17399</v>
+        <v>0.1765</v>
       </c>
       <c r="D17">
-        <v>0.1416</v>
+        <v>0.14589</v>
       </c>
       <c r="E17">
-        <v>0.02103</v>
+        <v>0.0261</v>
       </c>
       <c r="F17">
-        <v>-0.01958</v>
+        <v>-0.01638</v>
       </c>
       <c r="G17">
-        <v>-0.10683</v>
+        <v>-0.10245</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.10362</v>
+        <v>0.1087</v>
       </c>
       <c r="D18">
-        <v>0.1209</v>
+        <v>0.12437</v>
       </c>
       <c r="E18">
-        <v>0.09193</v>
+        <v>0.09886</v>
       </c>
       <c r="F18">
-        <v>-0.0131</v>
+        <v>-0.008659999999999999</v>
       </c>
       <c r="G18">
-        <v>-0.03102</v>
+        <v>-0.02786</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.04707</v>
+        <v>0.05154</v>
       </c>
       <c r="D19">
-        <v>0.15658</v>
+        <v>0.15985</v>
       </c>
       <c r="E19">
-        <v>0.06412</v>
+        <v>0.07015</v>
       </c>
       <c r="F19">
-        <v>0.00449</v>
+        <v>0.008580000000000001</v>
       </c>
       <c r="G19">
-        <v>-0.02893</v>
+        <v>-0.02478</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>-0.50884</v>
+        <v>-0.47638</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.23619</v>
+        <v>0.27646</v>
       </c>
       <c r="D21">
-        <v>-0.34529</v>
+        <v>-0.32193</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.59792</v>
+        <v>0.62573</v>
       </c>
       <c r="D22">
-        <v>0.23077</v>
+        <v>0.24367</v>
       </c>
       <c r="E22">
-        <v>-0.35779</v>
+        <v>-0.34051</v>
       </c>
       <c r="F22">
-        <v>-0.65021</v>
+        <v>-0.62581</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1.04736</v>
+        <v>1.0625</v>
       </c>
       <c r="D23">
-        <v>0.77613</v>
+        <v>0.79909</v>
       </c>
       <c r="E23">
-        <v>0.11064</v>
+        <v>0.13715</v>
       </c>
       <c r="F23">
-        <v>-0.10517</v>
+        <v>-0.08794</v>
       </c>
       <c r="G23">
-        <v>-0.58536</v>
+        <v>-0.56096</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.66709</v>
+        <v>0.69855</v>
       </c>
       <c r="D24">
-        <v>0.75348</v>
+        <v>0.77473</v>
       </c>
       <c r="E24">
-        <v>0.43757</v>
+        <v>0.46971</v>
       </c>
       <c r="F24">
-        <v>-0.08122</v>
+        <v>-0.05363</v>
       </c>
       <c r="G24">
-        <v>-0.19314</v>
+        <v>-0.17343</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.34422</v>
+        <v>0.37623</v>
       </c>
       <c r="D25">
-        <v>0.9154099999999999</v>
+        <v>0.93428</v>
       </c>
       <c r="E25">
-        <v>0.34431</v>
+        <v>0.37602</v>
       </c>
       <c r="F25">
-        <v>0.03194</v>
+        <v>0.06099</v>
       </c>
       <c r="G25">
-        <v>-0.19782</v>
+        <v>-0.16923</v>
       </c>
     </row>
     <row r="26" spans="1:7">
